--- a/StackOverflowMisc/ChangePivotTableRangeByMacro_NoMacro.xlsx
+++ b/StackOverflowMisc/ChangePivotTableRangeByMacro_NoMacro.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvandivier\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter.vandivier\hello-world\StackOverflowMisc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -91,19 +91,19 @@
     <t>Current DataSource:</t>
   </si>
   <si>
-    <t>C:\Users\pvandivier\Desktop\[Book2.xlsx]Sheet1!R2C1:R5C4</t>
-  </si>
-  <si>
     <t>jam2</t>
   </si>
   <si>
     <t>bar2</t>
+  </si>
+  <si>
+    <t>C:\Users\peter\Desktop\[Book2.xlsx]Sheet1!R2C1:R5C4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -279,7 +279,13 @@
     </xdr:to>
     <xdr:sp macro="[0]!ChangeDataSource" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -416,6 +422,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -731,7 +740,7 @@
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="7"/>
     </row>
@@ -742,7 +751,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E4" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -763,7 +772,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="4">
         <v>5</v>
@@ -774,13 +783,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="4">
         <v>4</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
